--- a/PC_Value_Tracker/output/monthly/Monthly_Report_2025-11.xlsx
+++ b/PC_Value_Tracker/output/monthly/Monthly_Report_2025-11.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-24 19:42</t>
+          <t>2026-01-24 21:19</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>BY STREAM</t>
         </is>
@@ -496,45 +496,45 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Day-to-Day</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>BY SYSTEM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BY SYSTEM</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
+          <t>PLC</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PLC</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -542,61 +542,61 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>BY COMPLEXITY</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BY COMPLEXITY</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>BY BUSINESS IMPACT</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Count</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BY BUSINESS IMPACT</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Efficiency</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -604,48 +604,38 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Compliance</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>BY RESOLUTION</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BY RESOLUTION</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
+          <t>Escalated</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Escalated</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,7 +728,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -760,7 +750,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -775,7 +765,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
@@ -790,7 +780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,101 +860,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Coordinated restore path for corrupted server pgwgen004002; evaluated backup options</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> === DIAGNOSTIC ===</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Summary</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Resolution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-11-17</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Coordinated restore path for corrupted server pgwgen004002; evaluated backup options</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Compliance</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1041,7 +979,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Day-to-Day</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
